--- a/Documents/documentacaoEditavel/Cronograma.xlsx
+++ b/Documents/documentacaoEditavel/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/documentacaoEditavel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F84BF-65EF-B34C-BCDB-BBDDAB78C0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F794C5-FD36-6D41-AF77-38283D822A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1758,11 +1758,15 @@
       <c r="B26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="34">
+        <v>43983</v>
+      </c>
+      <c r="E26" s="34">
+        <v>43983</v>
+      </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">

--- a/Documents/documentacaoEditavel/Cronograma.xlsx
+++ b/Documents/documentacaoEditavel/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/documentacaoEditavel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F794C5-FD36-6D41-AF77-38283D822A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECC53E-B589-FB48-904C-F66B9DFFF59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/Documents/documentacaoEditavel/Cronograma.xlsx
+++ b/Documents/documentacaoEditavel/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/documentacaoEditavel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECC53E-B589-FB48-904C-F66B9DFFF59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C5CEF-E7B8-D84D-9D27-E1B6749A4BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1774,11 +1774,15 @@
       <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="34">
+        <v>43983</v>
+      </c>
+      <c r="E27" s="34">
+        <v>43986</v>
+      </c>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
@@ -1786,11 +1790,15 @@
       <c r="B28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="34">
+        <v>43985</v>
+      </c>
+      <c r="E28" s="34">
+        <v>43985</v>
+      </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">

--- a/Documents/documentacaoEditavel/Cronograma.xlsx
+++ b/Documents/documentacaoEditavel/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/documentacaoEditavel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C5CEF-E7B8-D84D-9D27-E1B6749A4BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567080F6-34F8-E646-A82F-C55440796B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>SEMANA DE</t>
   </si>
@@ -129,9 +123,6 @@
     <t>Revisão do projeto</t>
   </si>
   <si>
-    <t>Testes e prototipação</t>
-  </si>
-  <si>
     <t>Reunião com equipe completa para definição do escopo do projeto.</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>05/06/2020 - 23/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementação do back-end </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementação do front-end </t>
+  </si>
+  <si>
+    <t>em andamento</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1403,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -1518,7 +1518,7 @@
         <v>43972</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1">
@@ -1564,7 +1564,7 @@
     <row r="12" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1721,7 +1721,7 @@
     <row r="23" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1814,7 +1814,7 @@
     <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1850,55 +1850,66 @@
     <row r="33" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="34">
+        <v>44004</v>
+      </c>
+      <c r="E33" s="34">
+        <v>44005</v>
+      </c>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="B35" s="26" t="s">
-        <v>30</v>
+    <row r="35" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23" t="s">
-        <v>29</v>
+      <c r="D35" s="25"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="B36" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="27"/>
-      <c r="E36" s="28">
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28">
         <v>44014</v>
       </c>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="C38" s="25"/>
@@ -1907,8 +1918,13 @@
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="C39" s="25"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1">
+      <c r="C40" s="25"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Documents/documentacaoEditavel/Cronograma.xlsx
+++ b/Documents/documentacaoEditavel/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/documentacaoEditavel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567080F6-34F8-E646-A82F-C55440796B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97557BAF-8D0C-5041-8954-1AE0D8AD08B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>SEMANA DE</t>
   </si>
@@ -111,9 +111,6 @@
     <t>consultar com o professor como estamos indo e se esta tudo coerente</t>
   </si>
   <si>
-    <t>Realizar acesso a API</t>
-  </si>
-  <si>
     <t>controle 4</t>
   </si>
   <si>
@@ -145,6 +142,18 @@
   </si>
   <si>
     <t>em andamento</t>
+  </si>
+  <si>
+    <t>entrega final</t>
+  </si>
+  <si>
+    <t>23/06/2020 - 02/07/2020</t>
+  </si>
+  <si>
+    <t>ETVX</t>
+  </si>
+  <si>
+    <t>request de cada fonte no banco e aquisição para o back</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -653,17 +662,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF1EEEA"/>
       </left>
       <right/>
@@ -735,7 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -829,16 +827,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,10 +1398,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1471,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -1487,7 +1482,7 @@
       <c r="E6" s="7">
         <v>43963</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -1502,7 +1497,7 @@
       <c r="E7" s="7">
         <v>43963</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="B8" s="3" t="s">
@@ -1517,8 +1512,8 @@
       <c r="E8" s="7">
         <v>43972</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>31</v>
+      <c r="F8" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1">
@@ -1534,10 +1529,10 @@
       <c r="E9" s="7">
         <v>43972</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1549,7 +1544,7 @@
       <c r="E10" s="7">
         <v>43972</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="12"/>
@@ -1564,7 +1559,7 @@
     <row r="12" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1599,7 +1594,7 @@
     </row>
     <row r="15" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -1615,7 +1610,7 @@
     </row>
     <row r="16" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -1631,7 +1626,7 @@
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -1647,63 +1642,63 @@
     </row>
     <row r="18" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>43977</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>43977</v>
       </c>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>43977</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>43977</v>
       </c>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" s="24" customFormat="1" ht="39" customHeight="1">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>43977</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>43977</v>
       </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>43977</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>43977</v>
       </c>
       <c r="F21" s="22"/>
@@ -1721,7 +1716,7 @@
     <row r="23" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1761,10 +1756,10 @@
       <c r="C26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <v>43983</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>43983</v>
       </c>
       <c r="F26" s="22"/>
@@ -1777,10 +1772,10 @@
       <c r="C27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>43983</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>43986</v>
       </c>
       <c r="F27" s="22"/>
@@ -1793,10 +1788,10 @@
       <c r="C28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <v>43985</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <v>43985</v>
       </c>
       <c r="F28" s="22"/>
@@ -1814,7 +1809,7 @@
     <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1824,7 +1819,7 @@
     <row r="31" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1850,81 +1845,134 @@
     <row r="33" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="34">
+        <v>7</v>
+      </c>
+      <c r="D33" s="33">
         <v>44004</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <v>44005</v>
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:6" s="24" customFormat="1" ht="37" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="33">
+        <v>44004</v>
+      </c>
+      <c r="E34" s="33">
+        <v>44005</v>
+      </c>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="33">
+        <v>44004</v>
+      </c>
+      <c r="E35" s="33">
+        <v>44005</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="33">
+        <v>44004</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1">
+      <c r="B41" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="B36" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="25" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28">
+      <c r="D42" s="27"/>
+      <c r="E42" s="28">
         <v>44014</v>
       </c>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="C40" s="25"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Documents/documentacaoEditavel/Cronograma.xlsx
+++ b/Documents/documentacaoEditavel/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Documents/GitHub/INF1629---PRINCIPIOS-ENG-DE-SOFTWARE/Documents/documentacaoEditavel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97557BAF-8D0C-5041-8954-1AE0D8AD08B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995BD34-522E-7541-B861-5C36B97CBBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>SEMANA DE</t>
   </si>
@@ -54,9 +54,6 @@
     <t>concluido</t>
   </si>
   <si>
-    <t>incompleto</t>
-  </si>
-  <si>
     <t>11/05/2020 - 15/05/2020</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t xml:space="preserve">implementação do front-end </t>
   </si>
   <si>
-    <t>em andamento</t>
-  </si>
-  <si>
     <t>entrega final</t>
   </si>
   <si>
@@ -154,6 +148,9 @@
   </si>
   <si>
     <t>request de cada fonte no banco e aquisição para o back</t>
+  </si>
+  <si>
+    <t>Implementar filtro</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -809,9 +806,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -819,9 +813,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,10 +1389,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1434,7 +1425,7 @@
     <row r="3" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1444,7 +1435,7 @@
     <row r="4" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -1466,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -1482,11 +1473,11 @@
       <c r="E6" s="7">
         <v>43963</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
@@ -1497,11 +1488,11 @@
       <c r="E7" s="7">
         <v>43963</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -1512,13 +1503,13 @@
       <c r="E8" s="7">
         <v>43972</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>30</v>
+      <c r="F8" s="30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="35" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
@@ -1529,11 +1520,11 @@
       <c r="E9" s="7">
         <v>43972</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="B10" s="34" t="s">
-        <v>13</v>
+      <c r="B10" s="32" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
@@ -1544,7 +1535,7 @@
       <c r="E10" s="7">
         <v>43972</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="12"/>
@@ -1559,7 +1550,7 @@
     <row r="12" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1569,7 +1560,7 @@
     <row r="13" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1594,111 +1585,111 @@
     </row>
     <row r="15" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="B15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="26">
         <v>43972</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>43976</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="B16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26">
         <v>43972</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>43973</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="28">
+      <c r="B17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="27">
         <v>43976</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>43973</v>
       </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="B18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="31">
         <v>43977</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>43977</v>
       </c>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="33">
+      <c r="B19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="31">
         <v>43977</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>43977</v>
       </c>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" s="24" customFormat="1" ht="39" customHeight="1">
-      <c r="B20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="33">
+      <c r="B20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="31">
         <v>43977</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>43977</v>
       </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="33">
+      <c r="B21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="31">
         <v>43977</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="31">
         <v>43977</v>
       </c>
       <c r="F21" s="22"/>
@@ -1716,7 +1707,7 @@
     <row r="23" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1726,7 +1717,7 @@
     <row r="24" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1751,15 +1742,15 @@
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="B26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="33">
+        <v>24</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="31">
         <v>43983</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>43983</v>
       </c>
       <c r="F26" s="22"/>
@@ -1767,15 +1758,15 @@
     <row r="27" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="33">
+        <v>22</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="31">
         <v>43983</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>43986</v>
       </c>
       <c r="F27" s="22"/>
@@ -1783,15 +1774,15 @@
     <row r="28" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="33">
+        <v>23</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="31">
         <v>43985</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>43985</v>
       </c>
       <c r="F28" s="22"/>
@@ -1809,7 +1800,7 @@
     <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1819,7 +1810,7 @@
     <row r="31" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1845,15 +1836,15 @@
     <row r="33" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="33">
+        <v>35</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="31">
         <v>44004</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="31">
         <v>44005</v>
       </c>
       <c r="F33" s="22"/>
@@ -1861,15 +1852,15 @@
     <row r="34" spans="1:6" s="24" customFormat="1" ht="37" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="33">
+        <v>39</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="31">
         <v>44004</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="31">
         <v>44005</v>
       </c>
       <c r="F34" s="22"/>
@@ -1877,15 +1868,15 @@
     <row r="35" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="33">
+        <v>38</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="31">
         <v>44004</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="31">
         <v>44005</v>
       </c>
       <c r="F35" s="22"/>
@@ -1903,7 +1894,7 @@
     <row r="37" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1913,7 +1904,7 @@
     <row r="38" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -1939,40 +1930,62 @@
     <row r="40" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="33">
+        <v>34</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="31">
         <v>44004</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="27">
+        <v>44013</v>
+      </c>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="B41" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23" t="s">
+      <c r="B41" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="31">
+        <v>44004</v>
+      </c>
+      <c r="E41" s="27">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1">
+      <c r="B42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28">
+      <c r="C42" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="31">
+        <v>44004</v>
+      </c>
+      <c r="E42" s="27">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="26">
+        <v>43972</v>
+      </c>
+      <c r="E43" s="27">
         <v>44014</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F43" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
